--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>pv1_area</t>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -374,23 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="2:2">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>param_pv1_area</t>
   </si>
 </sst>
 </file>
@@ -374,15 +377,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2300</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>param_pv1_area</t>
   </si>
 </sst>
 </file>
@@ -377,23 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2300</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>param_pv1_area</t>
+  </si>
+  <si>
+    <t>param_pv2_area</t>
   </si>
 </sst>
 </file>
@@ -374,15 +380,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>param_pv1_area</t>
-  </si>
-  <si>
-    <t>param_pv2_area</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,14 +396,6 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>400</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>param_pv1_area</t>
   </si>
 </sst>
 </file>
@@ -377,23 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>param_pv1_area</t>
+  </si>
+  <si>
+    <t>param_bat1_E_max_initial</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_max</t>
+  </si>
+  <si>
+    <t>param_solar_th1_area</t>
+  </si>
+  <si>
+    <t>param_pvt1_area</t>
   </si>
 </sst>
 </file>
@@ -374,15 +389,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,24 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>param_pv1_area</t>
-  </si>
-  <si>
-    <t>param_bat1_E_max_initial</t>
-  </si>
-  <si>
-    <t>param_P_CHP1_max</t>
-  </si>
-  <si>
-    <t>param_solar_th1_area</t>
-  </si>
-  <si>
-    <t>param_pvt1_area</t>
   </si>
 </sst>
 </file>
@@ -389,55 +374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>param_pv1_area</t>
+    <t>param_net1_max_P</t>
   </si>
   <si>
-    <t>param_bat1_E_max_initial</t>
+    <t>param_net1_max_Q</t>
   </si>
   <si>
-    <t>param_P_CHP1_max</t>
+    <t>param_net2_max_P</t>
   </si>
   <si>
-    <t>param_solar_th1_area</t>
-  </si>
-  <si>
-    <t>param_pvt1_area</t>
+    <t>param_net2_max_Q</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -421,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -429,14 +426,6 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
         <v>100</v>
       </c>
     </row>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>param_net1_max_P</t>
-  </si>
-  <si>
-    <t>param_net1_max_Q</t>
-  </si>
-  <si>
-    <t>param_net2_max_P</t>
-  </si>
-  <si>
-    <t>param_net2_max_Q</t>
+    <t>param_pv2_area</t>
   </si>
 </sst>
 </file>
@@ -386,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,31 +393,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,12 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>param_pv1_area</t>
+  </si>
+  <si>
     <t>param_pv2_area</t>
+  </si>
+  <si>
+    <t>param_bat1_E_max_initial</t>
+  </si>
+  <si>
+    <t>param_bat2_E_max_initial</t>
+  </si>
+  <si>
+    <t>param_solar_th2_area</t>
+  </si>
+  <si>
+    <t>param_pvt1_area</t>
+  </si>
+  <si>
+    <t>param_pvt2_area</t>
+  </si>
+  <si>
+    <t>param_Q_gas_boiler1_max</t>
+  </si>
+  <si>
+    <t>param_Q_gas_boiler2_max</t>
   </si>
 </sst>
 </file>
@@ -377,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,6 +420,70 @@
         <v>200</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,36 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>value</t>
   </si>
   <si>
     <t>param_pv1_area</t>
-  </si>
-  <si>
-    <t>param_pv2_area</t>
-  </si>
-  <si>
-    <t>param_bat1_E_max_initial</t>
-  </si>
-  <si>
-    <t>param_bat2_E_max_initial</t>
-  </si>
-  <si>
-    <t>param_solar_th2_area</t>
-  </si>
-  <si>
-    <t>param_pvt1_area</t>
-  </si>
-  <si>
-    <t>param_pvt2_area</t>
-  </si>
-  <si>
-    <t>param_Q_gas_boiler1_max</t>
-  </si>
-  <si>
-    <t>param_Q_gas_boiler2_max</t>
   </si>
 </sst>
 </file>
@@ -401,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,71 +393,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>param_pv1_area</t>
+    <t>param_P_CHP1_max</t>
+  </si>
+  <si>
+    <t>param_P_CHP1_min</t>
+  </si>
+  <si>
+    <t>param_P_heat_pump1_max</t>
+  </si>
+  <si>
+    <t>param_P_heat_pump1_min</t>
   </si>
 </sst>
 </file>
@@ -377,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +402,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/df_scalar_variable_values.xlsx
+++ b/output/df_scalar_variable_values.xlsx
@@ -14,21 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>param_P_CHP1_max</t>
+    <t>param_Q_gas_boiler1_max</t>
   </si>
   <si>
-    <t>param_P_CHP1_min</t>
-  </si>
-  <si>
-    <t>param_P_heat_pump1_max</t>
-  </si>
-  <si>
-    <t>param_P_heat_pump1_min</t>
+    <t>param_Q_gas_boiler1_min</t>
   </si>
 </sst>
 </file>
@@ -386,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,22 +407,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
